--- a/data/19_de_agosto.xlsx
+++ b/data/19_de_agosto.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,30 +457,40 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -502,21 +512,27 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>13</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
       </c>
       <c r="I2" t="n">
         <v>17</v>
       </c>
       <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -536,21 +552,27 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" t="n">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
       <c r="H3" t="n">
         <v>14</v>
       </c>
       <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>21</v>
       </c>
     </row>
@@ -570,21 +592,27 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
       <c r="I4" t="n">
         <v>14</v>
       </c>
       <c r="J4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
         <v>15</v>
       </c>
     </row>
@@ -604,21 +632,27 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>21</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>16</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>15</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>24</v>
       </c>
     </row>
@@ -638,21 +672,27 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>15</v>
       </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
       <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -672,21 +712,27 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>21</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>27</v>
       </c>
     </row>
@@ -706,21 +752,27 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>10</v>
       </c>
-      <c r="G8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14</v>
-      </c>
       <c r="I8" t="n">
         <v>14</v>
       </c>
       <c r="J8" t="n">
+        <v>14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
         <v>15</v>
       </c>
     </row>
@@ -740,21 +792,27 @@
         <v>14</v>
       </c>
       <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>13</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>30</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -774,21 +832,27 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>13</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>15</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>18</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -808,21 +872,27 @@
         <v>21</v>
       </c>
       <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>13</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>18</v>
       </c>
-      <c r="H11" t="n">
-        <v>14</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
         <v>17</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -837,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,30 +938,40 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>05dec2025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>25nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -916,30 +996,36 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -966,28 +1052,34 @@
           <t>21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -1016,30 +1108,36 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1068,30 +1166,36 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -1120,30 +1224,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1170,28 +1280,34 @@
           <t>26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -1220,30 +1336,36 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1268,26 +1390,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1316,30 +1444,36 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1368,30 +1502,36 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>11</t>
         </is>
